--- a/MedicalCard/MedicalCard.Exporter/Templates/ExaminationTemplate.xlsx
+++ b/MedicalCard/MedicalCard.Exporter/Templates/ExaminationTemplate.xlsx
@@ -343,33 +343,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -380,6 +353,33 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,7 +687,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:A65"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +719,7 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -733,7 +733,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -747,345 +747,345 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="12"/>
+      <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="8"/>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="8"/>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="9"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="12"/>
+      <c r="E19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="8"/>
       <c r="E20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="8"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="8"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="8"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="8"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="8"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="8"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="8"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="8"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="8"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="8"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="8"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="8"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="8"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="8"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="8"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="8"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="8"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="8"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="8"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="8"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="8"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="8"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="9"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="8"/>
       <c r="E38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="8"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="11"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="8"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="8"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="11"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="8"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="8"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="8"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="11"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="17"/>
+      <c r="C45" s="8"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="11"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="18"/>
+      <c r="C46" s="9"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="12"/>
+      <c r="F46" s="19"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19">
+      <c r="A60" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
+      <c r="A61" s="10"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
+      <c r="A62" s="10"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
+      <c r="A63" s="10"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
+      <c r="A64" s="10"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
+      <c r="A65" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
